--- a/transformed.xlsx
+++ b/transformed.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,55 +410,16 @@
         <v>type</v>
       </c>
       <c r="C1" t="str">
-        <v>location.road</v>
+        <v>location.type</v>
       </c>
       <c r="D1" t="str">
-        <v>location.direction</v>
+        <v>advisories.type</v>
       </c>
       <c r="E1" t="str">
-        <v>location.landmark</v>
+        <v>responders.personnel.name</v>
       </c>
       <c r="F1" t="str">
-        <v>time</v>
-      </c>
-      <c r="G1" t="str">
-        <v>status</v>
-      </c>
-      <c r="H1" t="str">
-        <v>details.vehiclesInvolved.type</v>
-      </c>
-      <c r="I1" t="str">
-        <v>details.vehiclesInvolved.plateNumber.serial</v>
-      </c>
-      <c r="J1" t="str">
-        <v>details.vehiclesInvolved.plateNumber.region</v>
-      </c>
-      <c r="K1" t="str">
-        <v>details.vehiclesInvolved.severity</v>
-      </c>
-      <c r="L1" t="str">
-        <v>details.casualties</v>
-      </c>
-      <c r="M1" t="str">
-        <v>details.lanesBlocked</v>
-      </c>
-      <c r="N1" t="str">
-        <v>advisories.type</v>
-      </c>
-      <c r="O1" t="str">
-        <v>advisories.message</v>
-      </c>
-      <c r="P1" t="str">
         <v>responders.agency</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>responders.arrivalTime</v>
-      </c>
-      <c r="R1" t="str">
-        <v>responders.personnel.name</v>
-      </c>
-      <c r="S1" t="str">
-        <v>responders.personnel.role</v>
       </c>
     </row>
     <row r="2">
@@ -468,104 +429,35 @@
       <c r="B2" t="str">
         <v>Accident</v>
       </c>
-      <c r="C2" t="str">
-        <v>PIE</v>
-      </c>
       <c r="D2" t="str">
-        <v>towards Tuas</v>
+        <v>Diversion</v>
       </c>
       <c r="E2" t="str">
-        <v>before Eunos Exit</v>
+        <v>Sgt. Tan Wei 1</v>
       </c>
       <c r="F2" t="str">
-        <v>2025-05-17T07:35:00+08:00</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Ongoing</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Car</v>
-      </c>
-      <c r="I2" t="str">
-        <v>SBC1234X</v>
-      </c>
-      <c r="J2" t="str">
-        <v>SG</v>
-      </c>
-      <c r="K2" t="str">
-        <v>Moderate</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="str">
-        <v>Lane 1, Lane 2</v>
-      </c>
-      <c r="N2" t="str">
-        <v>Diversion</v>
-      </c>
-      <c r="O2" t="str">
-        <v>Use Exit 10A to Eunos Link</v>
-      </c>
-      <c r="P2" t="str">
         <v>Traffic Police 1</v>
       </c>
-      <c r="Q2" t="str">
-        <v>2025-05-17T07:45:00+08:00</v>
-      </c>
-      <c r="R2" t="str">
-        <v>Sgt. Tan Wei 1</v>
-      </c>
-      <c r="S2" t="str">
-        <v>Team Leader</v>
-      </c>
     </row>
     <row r="3">
-      <c r="H3" t="str">
-        <v>Motorcycle</v>
-      </c>
-      <c r="I3" t="str">
-        <v>SBC2334X</v>
-      </c>
-      <c r="J3" t="str">
-        <v>ML</v>
-      </c>
-      <c r="K3" t="str">
-        <v>High</v>
-      </c>
-      <c r="N3" t="str">
+      <c r="D3" t="str">
         <v>Congestion Alert</v>
       </c>
-      <c r="O3" t="str">
-        <v>Expect delays of up to 25 minutes</v>
-      </c>
-      <c r="R3" t="str">
+      <c r="E3" t="str">
         <v>Cpl. Lim Hui 2</v>
       </c>
-      <c r="S3" t="str">
-        <v>Traffic Control</v>
-      </c>
     </row>
     <row r="4">
-      <c r="P4" t="str">
+      <c r="E4" t="str">
+        <v>Lt. Ravi Kumar 3</v>
+      </c>
+      <c r="F4" t="str">
         <v>SCDF 2</v>
       </c>
-      <c r="Q4" t="str">
-        <v>2025-05-17T07:50:00+08:00</v>
-      </c>
-      <c r="R4" t="str">
-        <v>Lt. Ravi Kumar 3</v>
-      </c>
-      <c r="S4" t="str">
-        <v>Rescue Operations</v>
-      </c>
     </row>
     <row r="5">
-      <c r="R5" t="str">
+      <c r="E5" t="str">
         <v>Spec. Ong Jia 4</v>
-      </c>
-      <c r="S5" t="str">
-        <v>Rescue Operations</v>
       </c>
     </row>
     <row r="6">
@@ -575,109 +467,40 @@
       <c r="B6" t="str">
         <v>Accident</v>
       </c>
-      <c r="C6" t="str">
-        <v>AYE</v>
-      </c>
       <c r="D6" t="str">
-        <v>towards Tuas</v>
+        <v>Diversion 1</v>
       </c>
       <c r="E6" t="str">
-        <v>before Eunos Exit</v>
+        <v>Sgt. Tan Wei 1</v>
       </c>
       <c r="F6" t="str">
-        <v>2025-05-17T07:35:00+08:00</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Ongoing</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Truck</v>
-      </c>
-      <c r="I6" t="str">
-        <v>SBC1234X</v>
-      </c>
-      <c r="J6" t="str">
-        <v>SG</v>
-      </c>
-      <c r="K6" t="str">
-        <v>Moderate</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="str">
-        <v>Lane 1, Lane 2</v>
-      </c>
-      <c r="N6" t="str">
-        <v>Diversion 1</v>
-      </c>
-      <c r="O6" t="str">
-        <v>Use Exit 10A to Eunos Link</v>
-      </c>
-      <c r="P6" t="str">
         <v>SCDF</v>
       </c>
-      <c r="Q6" t="str">
-        <v>2025-05-17T07:45:00+08:00</v>
-      </c>
-      <c r="R6" t="str">
-        <v>Sgt. Tan Wei 1</v>
-      </c>
-      <c r="S6" t="str">
-        <v>Rescue Operations</v>
-      </c>
     </row>
     <row r="7">
-      <c r="H7" t="str">
-        <v>Motorcycle</v>
-      </c>
-      <c r="I7" t="str">
-        <v>SBC2334X</v>
-      </c>
-      <c r="J7" t="str">
-        <v>ML</v>
-      </c>
-      <c r="K7" t="str">
-        <v>High</v>
-      </c>
-      <c r="N7" t="str">
+      <c r="D7" t="str">
         <v>Congestion Alert 2</v>
       </c>
-      <c r="O7" t="str">
-        <v>Expect delays of up to 25 minutes</v>
-      </c>
-      <c r="R7" t="str">
+      <c r="E7" t="str">
         <v>Cpl. Lim Hui 2</v>
       </c>
-      <c r="S7" t="str">
-        <v>Rescue Operations</v>
-      </c>
     </row>
     <row r="8">
-      <c r="P8" t="str">
+      <c r="E8" t="str">
+        <v>Lt. Ravi Kumar 3</v>
+      </c>
+      <c r="F8" t="str">
         <v>Traffic Police</v>
       </c>
-      <c r="Q8" t="str">
-        <v>2025-05-17T07:50:00+08:00</v>
-      </c>
-      <c r="R8" t="str">
-        <v>Lt. Ravi Kumar 3</v>
-      </c>
-      <c r="S8" t="str">
-        <v>Rescue Operations</v>
-      </c>
     </row>
     <row r="9">
-      <c r="R9" t="str">
+      <c r="E9" t="str">
         <v>Spec. Ong Jia 4</v>
-      </c>
-      <c r="S9" t="str">
-        <v>Rescue Operations</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
   </ignoredErrors>
 </worksheet>
 </file>